--- a/Names_to_redo.xlsx
+++ b/Names_to_redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ACE2D2-5F02-4F98-A1CC-2E0DDE6E2BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B359D7D-712A-402F-8727-BE862914290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44453385-356F-400B-AFE0-D8749C4A6117}"/>
   </bookViews>
@@ -36,17 +36,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+  <si>
+    <t>AGN Name</t>
+  </si>
+  <si>
+    <t>162935.00+315820.2</t>
+  </si>
+  <si>
+    <t>090159.65+333551.1</t>
+  </si>
+  <si>
+    <t>092907.48+640132.5</t>
+  </si>
+  <si>
+    <t>095209.81+331752.0</t>
+  </si>
+  <si>
+    <t>120448.23+543901.4</t>
+  </si>
+  <si>
+    <t>121938.27+552318.3</t>
+  </si>
+  <si>
+    <t>123731.71+542544.3</t>
+  </si>
+  <si>
+    <t>123850.21+583400.6</t>
+  </si>
+  <si>
+    <t>140447.81+053708.2</t>
+  </si>
+  <si>
+    <t>141945.05+512241.4</t>
+  </si>
+  <si>
+    <t>142022.71+515158.5</t>
+  </si>
+  <si>
+    <t>163618.68+331916.9</t>
+  </si>
+  <si>
+    <t>121532.90+560919.0</t>
+  </si>
+  <si>
+    <t>115118.98+520927.3</t>
+  </si>
+  <si>
+    <t>113933.38+511550.7</t>
+  </si>
   <si>
     <t>114338.55+564817.9</t>
   </si>
   <si>
-    <t>115118.98+520927.3</t>
-  </si>
-  <si>
-    <t>113933.38+511550.7</t>
-  </si>
-  <si>
     <t>142741.21+332937.3</t>
   </si>
   <si>
@@ -138,24 +180,6 @@
   </si>
   <si>
     <t>160836.53+545121.6</t>
-  </si>
-  <si>
-    <t>AGN Name</t>
-  </si>
-  <si>
-    <t>123632.75+552109.3</t>
-  </si>
-  <si>
-    <t>122321.78+311410.6</t>
-  </si>
-  <si>
-    <t>151354.51+184804.3</t>
-  </si>
-  <si>
-    <t>124939.87+581115.5</t>
-  </si>
-  <si>
-    <t>125731.87+272313.3</t>
   </si>
 </sst>
 </file>
@@ -536,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAEF08F-2222-4A15-8C1D-625AAA17A185}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -564,277 +588,287 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
